--- a/GS1.xlsx
+++ b/GS1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\SURP-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4905C4F-0065-424D-B34F-4B0459A2A4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3865F-1835-48AE-8960-D3B57A3C24DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <r>
       <rPr>
@@ -2461,296 +2461,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>“The Indian independence movement was a mass-based movement the encompassed various sections of society. It also underwent the process of constant ideological evolution.” Critically examine.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given the accelerated pace development and demand for energy, would you consider renewable energy as a viable option for India’s future?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What are the groups into which musical instruments in India have traditionally been classified?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on each of the following in about 20 words each: (a) The significance of Patharughat in the Indian freedom struggle.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on each of the following in about 20 words each: (b) Bangurumba folk dance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Discuss the extent, causes, and implications of the ‘nutrition transition’ said to be underway in India.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Trace the salient sequence of events in the popular revolt that took place in February 1946 in the then, ‘Royal Indian Navy’ and bring out its significance in the freedom struggle. Do you agree with the view that the sailors who took part in this revolt were some of the unsung heroes of the freedom struggle?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evaluate the influence of the three important women’s organizations of the early twentieth century in India on the Country’s society and politics. To what extent do you think were the social objectives of these organizations constrained by their political objectives?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>The significance of counter-urbanisation in the improvement of metropolitan cities in India.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>In the context of the freedom struggle, write short notes (not exceeding 50 words each) on the following: ‘Benoy-Badal-Dinesh’ martyrdom</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>In the context of the freedom struggle, write short notes (not exceeding 50 words each) on the following: Bharat Naujawan Sabha</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>In the context of the freedom struggle, write short notes (not exceeding 50 words each) on the following: ‘Babbar Akali’ movement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Distinguish either between the ‘Moatsu’ and ‘Yemshe’ festivals of Nagaland or the ‘Losar’ and ‘Khan’ festivals of Arunachal Pradesh.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Write a sentence each on any five of the following traditional theatre forms: Bhand Pather, Swang, Maach, Bhaona, Mudiyettu, Dashavatar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What are the major different styles of unglazed pottery making in India?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>List the classical dance forms of India as per the Sangeet Natak Akademi.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>“Disputes between the- riparian states on sharing of river waters in post- Independence India are becoming increasingly complex.” Objectively analyse the major disputes in this connection, with special reference to the Southern States.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>“Dalhousie’s predecessors had acted on the general principles of avoiding annexations, if these could be avoided. Dalhousie acted on the principles of annexation, if lie could do so legitimately. His annexations were both of war and peace.” Analyse.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>“Small-holder farms need to be strengthened to achieve national food security.” Do you agree with this assessment? Substantiate.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Assess the contributions made by the Indian Council of Agricultural Research (ICAR) in agricultural development.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Transhumance in India</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Frontogenesis and Frontolysis</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Golden Revolution</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sea-floor spreading</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Causes for dominant dendritic pattern of drainage in the Gangetic plains</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>‘Break-of-bulk” towns</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>While bringing out their salient features, distinguish between either ‘Madhubani’ Art and ‘Manjusha’ Art or ‘Rajasthani’ schools of painting and the ‘Pahari’ school of Painting.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Contributions of Latika Ghosh to the freedom struggle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Contributions of Bhai Maharaj Singh as a freedom fighter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>"An essential condition to eradicate poverty is to liberate the poor from the process of</t>
     </r>
     <r>
@@ -2760,10 +2470,6 @@
       </rPr>
       <t xml:space="preserve"> deprivation." Substantiate this statement with suitable examples.</t>
     </r>
-  </si>
-  <si>
-    <t>List the significant local storms of the
-hot-weather season .F in the country and bring out their socio-economic impact.</t>
   </si>
   <si>
     <r>
@@ -3215,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4167,7 +3873,7 @@
         <v>2018</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="59.25" customHeight="1">
@@ -4423,7 +4129,7 @@
         <v>2016</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="78" customHeight="1">
@@ -5115,244 +4821,124 @@
       </c>
     </row>
     <row r="237" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A237" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>235</v>
-      </c>
+      <c r="A237" s="5"/>
+      <c r="B237" s="4"/>
     </row>
     <row r="238" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A238" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="A238" s="5"/>
+      <c r="B238" s="4"/>
     </row>
     <row r="239" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A239" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>237</v>
-      </c>
+      <c r="A239" s="5"/>
+      <c r="B239" s="4"/>
     </row>
     <row r="240" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A240" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="A240" s="5"/>
+      <c r="B240" s="4"/>
     </row>
     <row r="241" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A241" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="A241" s="5"/>
+      <c r="B241" s="4"/>
     </row>
     <row r="242" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A242" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="A242" s="5"/>
+      <c r="B242" s="4"/>
     </row>
     <row r="243" spans="1:2" ht="125.25" customHeight="1">
-      <c r="A243" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>241</v>
-      </c>
+      <c r="A243" s="5"/>
+      <c r="B243" s="4"/>
     </row>
     <row r="244" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A244" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>242</v>
-      </c>
+      <c r="A244" s="5"/>
+      <c r="B244" s="4"/>
     </row>
     <row r="245" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A245" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="A245" s="5"/>
+      <c r="B245" s="4"/>
     </row>
     <row r="246" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A246" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>244</v>
-      </c>
+      <c r="A246" s="5"/>
+      <c r="B246" s="4"/>
     </row>
     <row r="247" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A247" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>245</v>
-      </c>
+      <c r="A247" s="5"/>
+      <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A248" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>246</v>
-      </c>
+      <c r="A248" s="5"/>
+      <c r="B248" s="4"/>
     </row>
     <row r="249" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A249" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="A249" s="5"/>
+      <c r="B249" s="4"/>
     </row>
     <row r="250" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A250" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>248</v>
-      </c>
+      <c r="A250" s="5"/>
+      <c r="B250" s="4"/>
     </row>
     <row r="251" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A251" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>249</v>
-      </c>
+      <c r="A251" s="5"/>
+      <c r="B251" s="4"/>
     </row>
     <row r="252" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A252" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="A252" s="5"/>
+      <c r="B252" s="4"/>
     </row>
     <row r="253" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A253" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>251</v>
-      </c>
+      <c r="A253" s="5"/>
+      <c r="B253" s="4"/>
     </row>
     <row r="254" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A254" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>252</v>
-      </c>
+      <c r="A254" s="5"/>
+      <c r="B254" s="4"/>
     </row>
     <row r="255" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A255" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="A255" s="5"/>
+      <c r="B255" s="4"/>
     </row>
     <row r="256" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A256" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>254</v>
-      </c>
+      <c r="A256" s="5"/>
+      <c r="B256" s="4"/>
     </row>
     <row r="257" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A257" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>265</v>
-      </c>
+      <c r="A257" s="5"/>
+      <c r="B257" s="8"/>
     </row>
     <row r="258" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A258" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="A258" s="5"/>
+      <c r="B258" s="4"/>
     </row>
     <row r="259" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A259" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>256</v>
-      </c>
+      <c r="A259" s="5"/>
+      <c r="B259" s="4"/>
     </row>
     <row r="260" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A260" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>257</v>
-      </c>
+      <c r="A260" s="5"/>
+      <c r="B260" s="4"/>
     </row>
     <row r="261" spans="1:2" ht="21" customHeight="1">
-      <c r="A261" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="A261" s="7"/>
+      <c r="B261" s="4"/>
     </row>
     <row r="262" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A262" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="A262" s="3"/>
+      <c r="B262" s="4"/>
     </row>
     <row r="263" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A263" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="A263" s="5"/>
+      <c r="B263" s="4"/>
     </row>
     <row r="264" spans="1:2" ht="78" customHeight="1">
-      <c r="A264" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="A264" s="5"/>
+      <c r="B264" s="4"/>
     </row>
     <row r="265" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A265" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="A265" s="5"/>
+      <c r="B265" s="4"/>
     </row>
     <row r="266" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A266" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A266" s="5"/>
+      <c r="B266" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GS1.xlsx
+++ b/GS1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\SURP-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3865F-1835-48AE-8960-D3B57A3C24DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B5C0D0-5A27-42C1-A557-75C133FB0B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Year</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="296">
   <si>
     <r>
       <rPr>
@@ -2487,6 +2476,557 @@
       </rPr>
       <t xml:space="preserve"> nature of convergence, collaboration and competition for its success.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>History</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Important Personalities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Industrial Revolution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Geography</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Climate Change</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Land and Water Resources</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Geomorphology</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Climate Weather and Atmosphere</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Society</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Salient features of Indian Society</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Role of women and women’s organization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vedic Age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delhi Sultanate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>British Administration and Policies in India</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Physical Environment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Natural Vegetation and Wildlife</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Social and Economic Geography</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Urbanization, their problems and their remedies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Communalism, Regionalism &amp; Secularism</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Architecture and Sculptures</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mineral Resources</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Energy Resources</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modern Indian History</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Oceanography</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>World Social and Economic Geography</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Religion and Philosophy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Effects of Globalization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Social and Religious Reform Movements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian National Movement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Earthquakes and Volcanoes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian National Congress</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Gandhian Phase</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>World Wars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buddhism and Jainism</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Poverty and Developmental issues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Paintings and Literature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Social Empowerment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Revolt of 1857</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Agriculture and Allied Sectors(geo)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>World History</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Art and Culture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vijayanagara Empire</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Post-independe nce Period</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Colonization and decolonization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Important Geophysical Phenomena</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>World’s Physical Geography</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drainage Basins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Arts &amp; Crafts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Early Medieval Period</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mughal Empire</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Literature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indian Music and Dance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Partition and Independence</t>
+    </r>
+  </si>
+  <si>
+    <t>Prehistoric Era</t>
+  </si>
+  <si>
+    <t>Sub-Topic</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Indian Society</t>
+  </si>
+  <si>
+    <t>Geography</t>
   </si>
 </sst>
 </file>
@@ -2581,12 +3121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2614,6 +3151,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2919,2026 +3468,3503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B266"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="59.77734375" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="21" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="C2" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A3" s="4">
         <v>2023</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A3" s="5">
+      <c r="C3" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A4" s="4">
         <v>2023</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A4" s="5">
+      <c r="C4" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="39" customHeight="1">
+      <c r="A5" s="2">
         <v>2023</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="39" customHeight="1">
-      <c r="A5" s="3">
+      <c r="C5" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A6" s="4">
         <v>2023</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A6" s="5">
+      <c r="C6" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A7" s="4">
         <v>2023</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A7" s="5">
+      <c r="C7" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A8" s="4">
         <v>2023</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A8" s="5">
+      <c r="C8" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A9" s="4">
         <v>2023</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A9" s="5">
+      <c r="C9" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A10" s="4">
         <v>2023</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A10" s="5">
+      <c r="C10" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A11" s="4">
         <v>2023</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A11" s="5">
+      <c r="C11" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A12" s="4">
         <v>2023</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="C12" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="78" customHeight="1">
+      <c r="A13" s="4">
         <v>2023</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="78" customHeight="1">
-      <c r="A13" s="5">
+      <c r="C13" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="78" customHeight="1">
+      <c r="A14" s="4">
         <v>2023</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="78" customHeight="1">
-      <c r="A14" s="5">
+      <c r="C14" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A15" s="4">
         <v>2023</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A15" s="5">
+      <c r="C15" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A16" s="4">
         <v>2023</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A16" s="5">
+      <c r="C16" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A17" s="4">
         <v>2023</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A17" s="5">
+      <c r="C17" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A18" s="4">
         <v>2023</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A18" s="5">
+      <c r="C18" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="78" customHeight="1">
+      <c r="A19" s="4">
         <v>2023</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="78" customHeight="1">
-      <c r="A19" s="5">
+      <c r="C19" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A20" s="4">
         <v>2023</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A20" s="5">
+      <c r="C20" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A21" s="4">
         <v>2023</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A21" s="5">
-        <v>2023</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A22" s="5">
+      <c r="C22" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="96" customHeight="1">
+      <c r="A23" s="4">
         <v>2022</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="96" customHeight="1">
-      <c r="A23" s="5">
+      <c r="C23" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="78" customHeight="1">
+      <c r="A24" s="4">
         <v>2022</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="78" customHeight="1">
-      <c r="A24" s="5">
+      <c r="C24" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39" customHeight="1">
+      <c r="A25" s="2">
         <v>2022</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="39" customHeight="1">
-      <c r="A25" s="3">
+      <c r="C25" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A26" s="4">
         <v>2022</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A26" s="5">
+      <c r="C26" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39" customHeight="1">
+      <c r="A27" s="2">
         <v>2022</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="39" customHeight="1">
-      <c r="A27" s="3">
+      <c r="C27" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A28" s="4">
         <v>2022</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A28" s="5">
+      <c r="C28" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A29" s="4">
         <v>2022</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A29" s="5">
+      <c r="C29" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A30" s="4">
         <v>2022</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A30" s="5">
+      <c r="C30" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="78" customHeight="1">
+      <c r="A31" s="4">
         <v>2022</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="78" customHeight="1">
-      <c r="A31" s="5">
+      <c r="C31" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A32" s="4">
         <v>2022</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A32" s="5">
+      <c r="C32" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A33" s="4">
         <v>2022</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A33" s="5">
+      <c r="C33" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A34" s="4">
         <v>2022</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A34" s="5">
+      <c r="C34" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A35" s="4">
         <v>2022</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A35" s="5">
+      <c r="C35" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A36" s="4">
         <v>2022</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A36" s="5">
+      <c r="C36" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A37" s="4">
         <v>2022</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A37" s="5">
+      <c r="C37" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A38" s="4">
         <v>2022</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A38" s="5">
+      <c r="C38" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="39" customHeight="1">
+      <c r="A39" s="2">
         <v>2022</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="39" customHeight="1">
-      <c r="A39" s="3">
+      <c r="C39" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A40" s="4">
         <v>2022</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A40" s="5">
+      <c r="C40" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A41" s="4">
         <v>2022</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A41" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A42" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A42" s="3">
+      <c r="C42" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="78" customHeight="1">
+      <c r="A43" s="4">
         <v>2021</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="78" customHeight="1">
-      <c r="A43" s="5">
+      <c r="C43" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A44" s="4">
         <v>2021</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A44" s="5">
+      <c r="C44" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="39" customHeight="1">
+      <c r="A45" s="2">
         <v>2021</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="39" customHeight="1">
-      <c r="A45" s="3">
+      <c r="C45" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A46" s="4">
         <v>2021</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A46" s="5">
+      <c r="C46" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="78" customHeight="1">
+      <c r="A47" s="4">
         <v>2021</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="78" customHeight="1">
-      <c r="A47" s="5">
+      <c r="C47" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A48" s="4">
         <v>2021</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A48" s="5">
+      <c r="C48" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="39" customHeight="1">
+      <c r="A49" s="2">
         <v>2021</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="39" customHeight="1">
-      <c r="A49" s="3">
+      <c r="C49" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A50" s="4">
         <v>2021</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A50" s="5">
+      <c r="C50" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A51" s="4">
         <v>2021</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A51" s="5">
+      <c r="C51" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A52" s="4">
         <v>2021</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A52" s="5">
+      <c r="C52" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A53" s="4">
         <v>2021</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A53" s="5">
+      <c r="C53" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A54" s="4">
         <v>2021</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A54" s="5">
+      <c r="C54" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="78" customHeight="1">
+      <c r="A55" s="4">
         <v>2021</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="78" customHeight="1">
-      <c r="A55" s="5">
+      <c r="C55" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A56" s="4">
         <v>2021</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A56" s="5">
+      <c r="C56" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="39" customHeight="1">
+      <c r="A57" s="2">
         <v>2021</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="39" customHeight="1">
-      <c r="A57" s="3">
+      <c r="C57" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A58" s="4">
         <v>2021</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A58" s="5">
+      <c r="C58" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A59" s="4">
         <v>2021</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A59" s="5">
+      <c r="C59" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A60" s="4">
         <v>2021</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A60" s="5">
+      <c r="C60" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A61" s="4">
         <v>2021</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A61" s="5">
-        <v>2021</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A62" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A62" s="5">
+      <c r="C62" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="39" customHeight="1">
+      <c r="A63" s="2">
         <v>2020</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="39" customHeight="1">
-      <c r="A63" s="3">
+      <c r="C63" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A64" s="4">
         <v>2020</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A64" s="5">
+      <c r="C64" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A65" s="2">
         <v>2020</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A65" s="3">
+      <c r="C65" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A66" s="2">
         <v>2020</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A66" s="3">
+      <c r="C66" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A67" s="4">
         <v>2020</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A67" s="5">
+      <c r="C67" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A68" s="4">
         <v>2020</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A68" s="5">
+      <c r="C68" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A69" s="4">
         <v>2020</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A69" s="5">
+      <c r="C69" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A70" s="4">
         <v>2020</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A70" s="5">
+      <c r="C70" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A71" s="4">
         <v>2020</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A71" s="5">
+      <c r="C71" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A72" s="4">
         <v>2020</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A72" s="5">
+      <c r="C72" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="39" customHeight="1">
+      <c r="A73" s="2">
         <v>2020</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="39" customHeight="1">
-      <c r="A73" s="3">
+      <c r="C73" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A74" s="4">
         <v>2020</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A74" s="5">
+      <c r="C74" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A75" s="4">
         <v>2020</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A75" s="5">
+      <c r="C75" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A76" s="4">
         <v>2020</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A76" s="5">
+      <c r="C76" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A77" s="4">
         <v>2020</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A77" s="5">
+      <c r="C77" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A78" s="2">
         <v>2020</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A78" s="3">
+      <c r="C78" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A79" s="2">
         <v>2020</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A79" s="3">
+      <c r="C79" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A80" s="4">
         <v>2020</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A80" s="5">
+      <c r="C80" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A81" s="4">
         <v>2020</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A81" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="39" customHeight="1">
+      <c r="A82" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="39" customHeight="1">
-      <c r="A82" s="3">
+      <c r="C82" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A83" s="4">
         <v>2019</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A83" s="5">
+      <c r="C83" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="78" customHeight="1">
+      <c r="A84" s="4">
         <v>2019</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="78" customHeight="1">
-      <c r="A84" s="5">
+      <c r="C84" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="39" customHeight="1">
+      <c r="A85" s="2">
         <v>2019</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="39" customHeight="1">
-      <c r="A85" s="3">
+      <c r="C85" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A86" s="4">
         <v>2019</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A86" s="5">
+      <c r="C86" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A87" s="4">
         <v>2019</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A87" s="5">
+      <c r="C87" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A88" s="4">
         <v>2019</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A88" s="5">
+      <c r="C88" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A89" s="4">
         <v>2019</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A89" s="5">
+      <c r="C89" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A90" s="4">
         <v>2019</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A90" s="5">
+      <c r="C90" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A91" s="4">
         <v>2019</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A91" s="5">
+      <c r="C91" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A92" s="4">
         <v>2019</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A92" s="5">
+      <c r="C92" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A93" s="4">
         <v>2019</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A93" s="5">
+      <c r="C93" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A94" s="4">
         <v>2019</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A94" s="5">
+      <c r="C94" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A95" s="2">
         <v>2019</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A95" s="3">
+      <c r="C95" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A96" s="4">
         <v>2019</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A96" s="5">
+      <c r="C96" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A97" s="4">
         <v>2019</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A97" s="5">
+      <c r="C97" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A98" s="4">
         <v>2019</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A98" s="5">
+      <c r="C98" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A99" s="4">
         <v>2019</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A99" s="5">
+      <c r="C99" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A100" s="4">
         <v>2019</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A100" s="5">
+      <c r="C100" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="39" customHeight="1">
+      <c r="A101" s="2">
         <v>2019</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="39" customHeight="1">
-      <c r="A101" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B101" s="4" t="s">
+      <c r="C101" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="39" customHeight="1">
+      <c r="A102" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="39" customHeight="1">
-      <c r="A102" s="3">
+      <c r="C102" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A103" s="4">
         <v>2018</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A103" s="5">
+      <c r="C103" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A104" s="2">
         <v>2018</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A104" s="3">
+      <c r="C104" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A105" s="4">
         <v>2018</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A105" s="5">
+      <c r="C105" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A106" s="4">
         <v>2018</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A106" s="5">
+      <c r="C106" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="39" customHeight="1">
+      <c r="A107" s="2">
         <v>2018</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="39" customHeight="1">
-      <c r="A107" s="3">
+      <c r="C107" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A108" s="2">
         <v>2018</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A108" s="3">
+      <c r="C108" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A109" s="4">
         <v>2018</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A109" s="5">
+      <c r="C109" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="78" customHeight="1">
+      <c r="A110" s="4">
         <v>2018</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="78" customHeight="1">
-      <c r="A110" s="5">
+      <c r="C110" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A111" s="4">
         <v>2018</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A111" s="5">
+      <c r="C111" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A112" s="4">
         <v>2018</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B112" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A112" s="5">
+      <c r="C112" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A113" s="4">
         <v>2018</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A113" s="5">
+      <c r="C113" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A114" s="4">
         <v>2018</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A114" s="5">
+      <c r="C114" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A115" s="4">
         <v>2018</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A115" s="5">
+      <c r="C115" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A116" s="4">
         <v>2018</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A116" s="5">
+      <c r="C116" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A117" s="4">
         <v>2018</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A117" s="5">
+      <c r="C117" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A118" s="4">
         <v>2018</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A119" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A118" s="5">
+      <c r="C119" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="78" customHeight="1">
+      <c r="A120" s="4">
         <v>2018</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B120" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A121" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A122" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="39" customHeight="1">
+      <c r="A123" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A119" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="78" customHeight="1">
-      <c r="A120" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A121" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A122" s="5">
+      <c r="D123" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A124" s="4">
         <v>2017</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="39" customHeight="1">
-      <c r="A123" s="3">
+      <c r="B124" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A125" s="4">
         <v>2017</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A124" s="5">
+      <c r="B125" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A126" s="4">
         <v>2017</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A125" s="5">
+      <c r="B126" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A127" s="4">
         <v>2017</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A126" s="5">
+      <c r="B127" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="78" customHeight="1">
+      <c r="A128" s="4">
         <v>2017</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A127" s="5">
+      <c r="B128" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="39" customHeight="1">
+      <c r="A129" s="2">
         <v>2017</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="78" customHeight="1">
-      <c r="A128" s="5">
+      <c r="B129" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A130" s="4">
         <v>2017</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="39" customHeight="1">
-      <c r="A129" s="3">
+      <c r="B130" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A131" s="4">
         <v>2017</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A130" s="5">
+      <c r="B131" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="78" customHeight="1">
+      <c r="A132" s="4">
         <v>2017</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A131" s="5">
+      <c r="B132" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A133" s="4">
         <v>2017</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="78" customHeight="1">
-      <c r="A132" s="5">
+      <c r="B133" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A134" s="4">
         <v>2017</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A133" s="5">
+      <c r="B134" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A135" s="2">
         <v>2017</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A134" s="5">
+      <c r="B135" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="78" customHeight="1">
+      <c r="A136" s="4">
         <v>2017</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A135" s="3">
+      <c r="B136" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A137" s="4">
         <v>2017</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="78" customHeight="1">
-      <c r="A136" s="5">
+      <c r="B137" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A138" s="4">
         <v>2017</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A137" s="5">
+      <c r="B138" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A139" s="4">
         <v>2017</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A138" s="5">
+      <c r="B139" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A140" s="4">
         <v>2017</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A139" s="5">
+      <c r="B140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="78" customHeight="1">
+      <c r="A141" s="4">
         <v>2017</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A140" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="78" customHeight="1">
-      <c r="A141" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="C141" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A142" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A142" s="5">
+      <c r="C142" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A143" s="4">
         <v>2016</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A143" s="5">
+      <c r="C143" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A144" s="4">
         <v>2016</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A144" s="5">
+      <c r="C144" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A145" s="4">
         <v>2016</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A145" s="5">
+      <c r="C145" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A146" s="4">
         <v>2016</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A146" s="5">
+      <c r="C146" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A147" s="4">
         <v>2016</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A147" s="5">
+      <c r="C147" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A148" s="4">
         <v>2016</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A148" s="5">
+      <c r="C148" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A149" s="4">
         <v>2016</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A149" s="5">
+      <c r="C149" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A150" s="8">
         <v>2016</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B150" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="78" customHeight="1">
+      <c r="A151" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A150" s="9">
+      <c r="C151" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="78" customHeight="1">
+      <c r="A152" s="4">
         <v>2016</v>
       </c>
-      <c r="B150" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="78" customHeight="1">
-      <c r="A151" s="5">
+      <c r="B152" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A153" s="4">
         <v>2016</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="78" customHeight="1">
-      <c r="A152" s="5">
+      <c r="B153" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A154" s="4">
         <v>2016</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A153" s="5">
+      <c r="B154" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A155" s="4">
         <v>2016</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A154" s="5">
+      <c r="B155" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A156" s="4">
         <v>2016</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A155" s="5">
+      <c r="B156" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A157" s="4">
         <v>2016</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A156" s="5">
+      <c r="B157" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A158" s="4">
         <v>2016</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A157" s="5">
+      <c r="B158" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A159" s="4">
         <v>2016</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A158" s="5">
+      <c r="B159" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A160" s="4">
         <v>2016</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A159" s="5">
+      <c r="B160" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A161" s="4">
         <v>2016</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A160" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B160" s="4" t="s">
+      <c r="B161" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A161" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B161" s="6" t="s">
+      <c r="C161" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="97.5" customHeight="1">
+      <c r="A162" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="97.5" customHeight="1">
-      <c r="A162" s="5">
+      <c r="C162" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="96.75" customHeight="1">
+      <c r="A163" s="4">
         <v>2015</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A163" s="5">
+      <c r="C163" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A164" s="4">
         <v>2015</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A164" s="5">
+      <c r="C164" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="78" customHeight="1">
+      <c r="A165" s="4">
         <v>2015</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="78" customHeight="1">
-      <c r="A165" s="5">
+      <c r="C165" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="115.5" customHeight="1">
+      <c r="A166" s="4">
         <v>2015</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B166" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A166" s="5">
+      <c r="C166" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="96" customHeight="1">
+      <c r="A167" s="4">
         <v>2015</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B167" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="96" customHeight="1">
-      <c r="A167" s="5">
+      <c r="C167" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A168" s="4">
         <v>2015</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A168" s="5">
+      <c r="C168" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A169" s="4">
         <v>2015</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A169" s="5">
+      <c r="C169" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="78" customHeight="1">
+      <c r="A170" s="4">
         <v>2015</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="78" customHeight="1">
-      <c r="A170" s="5">
+      <c r="C170" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="78" customHeight="1">
+      <c r="A171" s="4">
         <v>2015</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="78" customHeight="1">
-      <c r="A171" s="5">
+      <c r="C171" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A172" s="4">
         <v>2015</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A172" s="5">
+      <c r="C172" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A173" s="4">
         <v>2015</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A173" s="5">
+      <c r="C173" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="78" customHeight="1">
+      <c r="A174" s="4">
         <v>2015</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="78" customHeight="1">
-      <c r="A174" s="5">
+      <c r="C174" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A175" s="4">
         <v>2015</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A175" s="5">
+      <c r="C175" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A176" s="4">
         <v>2015</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A176" s="5">
+      <c r="C176" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A177" s="4">
         <v>2015</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A177" s="5">
+      <c r="C177" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="76.5" customHeight="1">
+      <c r="A178" s="4">
         <v>2015</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="76.5" customHeight="1">
-      <c r="A178" s="5">
+      <c r="C178" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A179" s="4">
         <v>2015</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A179" s="5">
+      <c r="C179" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A180" s="4">
         <v>2015</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A180" s="5">
+      <c r="C180" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A181" s="4">
         <v>2015</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A181" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B181" s="4" t="s">
+      <c r="C181" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="78.75" customHeight="1">
+      <c r="A182" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="78.75" customHeight="1">
-      <c r="A182" s="5">
+      <c r="C182" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A183" s="4">
         <v>2014</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B183" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A183" s="5">
+      <c r="C183" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="125.25" customHeight="1">
+      <c r="A184" s="4">
         <v>2014</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="125.25" customHeight="1">
-      <c r="A184" s="5">
+      <c r="C184" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A185" s="4">
         <v>2014</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A185" s="5">
+      <c r="C185" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A186" s="4">
         <v>2014</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A186" s="5">
+      <c r="C186" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A187" s="4">
         <v>2014</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A187" s="5">
+      <c r="C187" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A188" s="4">
         <v>2014</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A188" s="5">
+      <c r="C188" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A189" s="4">
         <v>2014</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A189" s="5">
+      <c r="C189" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A190" s="4">
         <v>2014</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A190" s="5">
+      <c r="C190" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A191" s="4">
         <v>2014</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A191" s="5">
+      <c r="C191" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="78" customHeight="1">
+      <c r="A192" s="4">
         <v>2014</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="78" customHeight="1">
-      <c r="A192" s="5">
+      <c r="C192" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A193" s="4">
         <v>2014</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A193" s="5">
+      <c r="C193" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A194" s="4">
         <v>2014</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A194" s="5">
+      <c r="C194" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A195" s="4">
         <v>2014</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B195" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A195" s="5">
+      <c r="C195" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A196" s="4">
         <v>2014</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B196" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A196" s="5">
+      <c r="C196" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A197" s="4">
         <v>2014</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A197" s="5">
+      <c r="C197" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="96.75" customHeight="1">
+      <c r="A198" s="4">
         <v>2014</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A198" s="5">
+      <c r="C198" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A199" s="2">
         <v>2014</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B199" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A199" s="3">
+      <c r="C199" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A200" s="4">
         <v>2014</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A200" s="5">
+      <c r="C200" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="78" customHeight="1">
+      <c r="A201" s="4">
         <v>2014</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="78" customHeight="1">
-      <c r="A201" s="5">
+      <c r="C201" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="96.75" customHeight="1">
+      <c r="A202" s="4">
         <v>2014</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A202" s="5">
+      <c r="C202" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A203" s="4">
         <v>2014</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A203" s="5">
+      <c r="C203" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A204" s="4">
         <v>2014</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A204" s="5">
+      <c r="C204" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A205" s="4">
         <v>2014</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A205" s="5">
+      <c r="C205" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A206" s="4">
         <v>2014</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B206" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A206" s="5">
-        <v>2014</v>
-      </c>
-      <c r="B206" s="4" t="s">
+      <c r="C206" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="96.75" customHeight="1">
+      <c r="A207" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A207" s="5">
+      <c r="C207" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A208" s="4">
         <v>2013</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B208" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A208" s="5">
+      <c r="C208" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A209" s="4">
         <v>2013</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B209" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A209" s="5">
+      <c r="C209" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A210" s="4">
         <v>2013</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A210" s="5">
+      <c r="C210" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="78" customHeight="1">
+      <c r="A211" s="4">
         <v>2013</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B211" s="5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="78" customHeight="1">
-      <c r="A211" s="5">
+      <c r="C211" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A212" s="4">
         <v>2013</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B212" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A212" s="5">
+      <c r="C212" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A213" s="4">
         <v>2013</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B213" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A213" s="5">
+      <c r="C213" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A214" s="4">
         <v>2013</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B214" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A214" s="5">
+      <c r="C214" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A215" s="4">
         <v>2013</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B215" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A215" s="5">
+      <c r="C215" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A216" s="4">
         <v>2013</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B216" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A216" s="5">
+      <c r="C216" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A217" s="4">
         <v>2013</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B217" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A217" s="5">
+      <c r="C217" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="78" customHeight="1">
+      <c r="A218" s="4">
         <v>2013</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B218" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" ht="78" customHeight="1">
-      <c r="A218" s="5">
+      <c r="C218" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A219" s="4">
         <v>2013</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B219" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A219" s="5">
+      <c r="C219" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A220" s="4">
         <v>2013</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B220" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A220" s="5">
+      <c r="C220" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A221" s="4">
         <v>2013</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B221" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A221" s="5">
+      <c r="C221" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="78" customHeight="1">
+      <c r="A222" s="4">
         <v>2013</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B222" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" ht="78" customHeight="1">
-      <c r="A222" s="5">
+      <c r="C222" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="78" customHeight="1">
+      <c r="A223" s="4">
         <v>2013</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B223" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" ht="78" customHeight="1">
-      <c r="A223" s="5">
+      <c r="C223" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A224" s="4">
         <v>2013</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B224" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A224" s="5">
+      <c r="C224" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A225" s="4">
         <v>2013</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B225" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A225" s="5">
+      <c r="C225" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A226" s="4">
         <v>2013</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B226" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A226" s="5">
+      <c r="C226" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A227" s="4">
         <v>2013</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B227" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A227" s="5">
+      <c r="C227" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A228" s="4">
         <v>2013</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B228" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A228" s="5">
+      <c r="C228" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A229" s="4">
         <v>2013</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B229" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A229" s="5">
+      <c r="C229" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D229" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A230" s="4">
         <v>2013</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B230" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A230" s="5">
+      <c r="C230" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A231" s="4">
         <v>2013</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B231" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A231" s="5">
+      <c r="C231" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A232" s="2">
         <v>2013</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B232" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A232" s="3">
+      <c r="C232" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D232" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A233" s="4">
         <v>2013</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B233" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A233" s="5">
+      <c r="C233" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A234" s="4">
         <v>2013</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B234" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A234" s="5">
+      <c r="C234" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="96.75" customHeight="1">
+      <c r="A235" s="4">
         <v>2013</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B235" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A235" s="5">
+      <c r="C235" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="115.5" customHeight="1">
+      <c r="A236" s="4">
         <v>2013</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B236" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A236" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A237" s="5"/>
-      <c r="B237" s="4"/>
-    </row>
-    <row r="238" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A238" s="5"/>
-      <c r="B238" s="4"/>
-    </row>
-    <row r="239" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A239" s="5"/>
-      <c r="B239" s="4"/>
-    </row>
-    <row r="240" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A240" s="5"/>
-      <c r="B240" s="4"/>
-    </row>
-    <row r="241" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A241" s="5"/>
-      <c r="B241" s="4"/>
-    </row>
-    <row r="242" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A242" s="5"/>
-      <c r="B242" s="4"/>
-    </row>
-    <row r="243" spans="1:2" ht="125.25" customHeight="1">
-      <c r="A243" s="5"/>
-      <c r="B243" s="4"/>
-    </row>
-    <row r="244" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A244" s="5"/>
-      <c r="B244" s="4"/>
-    </row>
-    <row r="245" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A245" s="5"/>
-      <c r="B245" s="4"/>
-    </row>
-    <row r="246" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A246" s="5"/>
-      <c r="B246" s="4"/>
-    </row>
-    <row r="247" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A247" s="5"/>
-      <c r="B247" s="4"/>
-    </row>
-    <row r="248" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A248" s="5"/>
-      <c r="B248" s="4"/>
-    </row>
-    <row r="249" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A249" s="5"/>
-      <c r="B249" s="4"/>
-    </row>
-    <row r="250" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A250" s="5"/>
-      <c r="B250" s="4"/>
-    </row>
-    <row r="251" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A251" s="5"/>
-      <c r="B251" s="4"/>
-    </row>
-    <row r="252" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A252" s="5"/>
-      <c r="B252" s="4"/>
-    </row>
-    <row r="253" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A253" s="5"/>
-      <c r="B253" s="4"/>
-    </row>
-    <row r="254" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A254" s="5"/>
-      <c r="B254" s="4"/>
-    </row>
-    <row r="255" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A255" s="5"/>
-      <c r="B255" s="4"/>
-    </row>
-    <row r="256" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A256" s="5"/>
-      <c r="B256" s="4"/>
-    </row>
-    <row r="257" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A257" s="5"/>
-      <c r="B257" s="8"/>
-    </row>
-    <row r="258" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A258" s="5"/>
-      <c r="B258" s="4"/>
-    </row>
-    <row r="259" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A259" s="5"/>
-      <c r="B259" s="4"/>
-    </row>
-    <row r="260" spans="1:2" ht="57.75" customHeight="1">
-      <c r="A260" s="5"/>
-      <c r="B260" s="4"/>
-    </row>
-    <row r="261" spans="1:2" ht="21" customHeight="1">
-      <c r="A261" s="7"/>
-      <c r="B261" s="4"/>
-    </row>
-    <row r="262" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A262" s="3"/>
-      <c r="B262" s="4"/>
-    </row>
-    <row r="263" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A263" s="5"/>
-      <c r="B263" s="4"/>
-    </row>
-    <row r="264" spans="1:2" ht="78" customHeight="1">
-      <c r="A264" s="5"/>
-      <c r="B264" s="4"/>
-    </row>
-    <row r="265" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A265" s="5"/>
-      <c r="B265" s="4"/>
-    </row>
-    <row r="266" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A266" s="5"/>
-      <c r="B266" s="4"/>
+      <c r="C236" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="96.75" customHeight="1">
+      <c r="A237" s="4"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
+    </row>
+    <row r="238" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A238" s="4"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+    </row>
+    <row r="239" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A239" s="4"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+    </row>
+    <row r="240" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A240" s="4"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+    </row>
+    <row r="241" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A241" s="4"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+    </row>
+    <row r="242" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A242" s="4"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+    </row>
+    <row r="243" spans="1:4" ht="125.25" customHeight="1">
+      <c r="A243" s="4"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+    </row>
+    <row r="244" spans="1:4" ht="115.5" customHeight="1">
+      <c r="A244" s="4"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
+    </row>
+    <row r="245" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A245" s="4"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
+    </row>
+    <row r="246" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A246" s="4"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="10"/>
+    </row>
+    <row r="247" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A247" s="4"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="10"/>
+    </row>
+    <row r="248" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A248" s="4"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10"/>
+    </row>
+    <row r="249" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A249" s="4"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
+    </row>
+    <row r="250" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A250" s="4"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
+    </row>
+    <row r="251" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A251" s="4"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+    </row>
+    <row r="252" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A252" s="4"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="10"/>
+    </row>
+    <row r="253" spans="1:4" ht="115.5" customHeight="1">
+      <c r="A253" s="4"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10"/>
+    </row>
+    <row r="254" spans="1:4" ht="115.5" customHeight="1">
+      <c r="A254" s="4"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
+    </row>
+    <row r="255" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A255" s="4"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
+    </row>
+    <row r="256" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A256" s="4"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="10"/>
+      <c r="D256" s="10"/>
+    </row>
+    <row r="257" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A257" s="4"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="10"/>
+    </row>
+    <row r="258" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A258" s="4"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="10"/>
+    </row>
+    <row r="259" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A259" s="4"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
+    </row>
+    <row r="260" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A260" s="4"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
+    </row>
+    <row r="261" spans="1:4" ht="21" customHeight="1">
+      <c r="A261" s="6"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+    </row>
+    <row r="262" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A262" s="2"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="10"/>
+    </row>
+    <row r="263" spans="1:4" ht="59.25" customHeight="1">
+      <c r="A263" s="4"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="10"/>
+    </row>
+    <row r="264" spans="1:4" ht="78" customHeight="1">
+      <c r="A264" s="4"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
+    </row>
+    <row r="265" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A265" s="4"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+    </row>
+    <row r="266" spans="1:4" ht="58.5" customHeight="1">
+      <c r="A266" s="4"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
